--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,40 +546,40 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N2">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q2">
-        <v>0.08309962645000001</v>
+        <v>0.1215105109</v>
       </c>
       <c r="R2">
-        <v>0.7478966380500001</v>
+        <v>1.0935945981</v>
       </c>
       <c r="S2">
-        <v>0.002269220750217845</v>
+        <v>0.003190528626669794</v>
       </c>
       <c r="T2">
-        <v>0.002269220750217845</v>
+        <v>0.003190528626669793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +608,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>74.707763</v>
       </c>
       <c r="O3">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P3">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q3">
         <v>3.817981732427778</v>
@@ -638,10 +638,10 @@
         <v>34.36183559185</v>
       </c>
       <c r="S3">
-        <v>0.1042585116359183</v>
+        <v>0.1002495991761413</v>
       </c>
       <c r="T3">
-        <v>0.1042585116359183</v>
+        <v>0.1002495991761413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N4">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O4">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P4">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q4">
-        <v>0.002654933611111112</v>
+        <v>0.01535604401666667</v>
       </c>
       <c r="R4">
-        <v>0.0238944025</v>
+        <v>0.13820439615</v>
       </c>
       <c r="S4">
-        <v>7.249888715696062E-05</v>
+        <v>0.0004032070778461059</v>
       </c>
       <c r="T4">
-        <v>7.249888715696059E-05</v>
+        <v>0.0004032070778461057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +732,10 @@
         <v>0.45995</v>
       </c>
       <c r="I5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N5">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O5">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P5">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q5">
-        <v>0.1842238246055555</v>
+        <v>0.2357023996111111</v>
       </c>
       <c r="R5">
-        <v>1.65801442145</v>
+        <v>2.1213215965</v>
       </c>
       <c r="S5">
-        <v>0.005030642655547334</v>
+        <v>0.006188890555755313</v>
       </c>
       <c r="T5">
-        <v>0.005030642655547332</v>
+        <v>0.006188890555755313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,40 @@
         <v>0.45995</v>
       </c>
       <c r="I6">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J6">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N6">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O6">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P6">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q6">
-        <v>0.002854347488888889</v>
+        <v>0.005172239961111112</v>
       </c>
       <c r="R6">
-        <v>0.0256891274</v>
+        <v>0.04655015965000001</v>
       </c>
       <c r="S6">
-        <v>7.79443281133891E-05</v>
+        <v>0.0001358086599891867</v>
       </c>
       <c r="T6">
-        <v>7.794432811338906E-05</v>
+        <v>0.0001358086599891866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>2.867988</v>
       </c>
       <c r="I7">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J7">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N7">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q7">
-        <v>0.518162259948</v>
+        <v>0.7576708058160002</v>
       </c>
       <c r="R7">
-        <v>4.663460339532</v>
+        <v>6.819037252344001</v>
       </c>
       <c r="S7">
-        <v>0.01414957686917225</v>
+        <v>0.01989433159027166</v>
       </c>
       <c r="T7">
-        <v>0.01414957686917225</v>
+        <v>0.01989433159027165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.867988</v>
       </c>
       <c r="I8">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J8">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>74.707763</v>
       </c>
       <c r="O8">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P8">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q8">
         <v>23.80677419898267</v>
@@ -948,10 +948,10 @@
         <v>214.260967790844</v>
       </c>
       <c r="S8">
-        <v>0.6500970980969109</v>
+        <v>0.6250997878943001</v>
       </c>
       <c r="T8">
-        <v>0.6500970980969105</v>
+        <v>0.6250997878943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>2.867988</v>
       </c>
       <c r="I9">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J9">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N9">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O9">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P9">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q9">
-        <v>0.01655466406666667</v>
+        <v>0.09575160336400002</v>
       </c>
       <c r="R9">
-        <v>0.1489919766</v>
+        <v>0.8617644302760001</v>
       </c>
       <c r="S9">
-        <v>0.0004520620466996786</v>
+        <v>0.002514171237694744</v>
       </c>
       <c r="T9">
-        <v>0.0004520620466996784</v>
+        <v>0.002514171237694744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>2.867988</v>
       </c>
       <c r="I10">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J10">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N10">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O10">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P10">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q10">
-        <v>1.148715552305333</v>
+        <v>1.469706823906667</v>
       </c>
       <c r="R10">
-        <v>10.338439970748</v>
+        <v>13.22736141516</v>
       </c>
       <c r="S10">
-        <v>0.03136824169670157</v>
+        <v>0.03859042036573448</v>
       </c>
       <c r="T10">
-        <v>0.03136824169670156</v>
+        <v>0.03859042036573447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>2.867988</v>
       </c>
       <c r="I11">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J11">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N11">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O11">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P11">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q11">
-        <v>0.01779809619733334</v>
+        <v>0.03225116239066668</v>
       </c>
       <c r="R11">
-        <v>0.160182865776</v>
+        <v>0.290260461516</v>
       </c>
       <c r="S11">
-        <v>0.0004860167359436082</v>
+        <v>0.0008468259748778509</v>
       </c>
       <c r="T11">
-        <v>0.0004860167359436081</v>
+        <v>0.0008468259748778506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H12">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N12">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q12">
-        <v>0.142633069673</v>
+        <v>0.10026763628</v>
       </c>
       <c r="R12">
-        <v>1.283697627057</v>
+        <v>0.90240872652</v>
       </c>
       <c r="S12">
-        <v>0.00389491427574569</v>
+        <v>0.002632749722722586</v>
       </c>
       <c r="T12">
-        <v>0.00389491427574569</v>
+        <v>0.002632749722722586</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H13">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>74.707763</v>
       </c>
       <c r="O13">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P13">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q13">
-        <v>6.553223855696555</v>
+        <v>3.150509374335555</v>
       </c>
       <c r="R13">
-        <v>58.979014701269</v>
+        <v>28.35458436902</v>
       </c>
       <c r="S13">
-        <v>0.1789504019385302</v>
+        <v>0.08272362837550318</v>
       </c>
       <c r="T13">
-        <v>0.1789504019385302</v>
+        <v>0.08272362837550318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H14">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I14">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J14">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N14">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O14">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P14">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q14">
-        <v>0.004556955872222222</v>
+        <v>0.01267144895333333</v>
       </c>
       <c r="R14">
-        <v>0.04101260285</v>
+        <v>0.11404304058</v>
       </c>
       <c r="S14">
-        <v>0.0001244378496610405</v>
+        <v>0.0003327170656065029</v>
       </c>
       <c r="T14">
-        <v>0.0001244378496610405</v>
+        <v>0.0003327170656065028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H15">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I15">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J15">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N15">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O15">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P15">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q15">
-        <v>0.316203703108111</v>
+        <v>0.1944961164222222</v>
       </c>
       <c r="R15">
-        <v>2.845833327973</v>
+        <v>1.7504650478</v>
       </c>
       <c r="S15">
-        <v>0.008634647772097758</v>
+        <v>0.005106927973760999</v>
       </c>
       <c r="T15">
-        <v>0.008634647772097756</v>
+        <v>0.005106927973760999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,356 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H16">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I16">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J16">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03373566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.101207</v>
+      </c>
+      <c r="O16">
+        <v>0.001232741067797836</v>
+      </c>
+      <c r="P16">
+        <v>0.001232741067797835</v>
+      </c>
+      <c r="Q16">
+        <v>0.004268011642222223</v>
+      </c>
+      <c r="R16">
+        <v>0.03841210478</v>
+      </c>
+      <c r="S16">
+        <v>0.0001120661350414086</v>
+      </c>
+      <c r="T16">
+        <v>0.0001120661350414086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.01861733333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.055852</v>
-      </c>
-      <c r="O16">
-        <v>0.0006977455256406052</v>
-      </c>
-      <c r="P16">
-        <v>0.0006977455256406051</v>
-      </c>
-      <c r="Q16">
-        <v>0.004899231941777778</v>
-      </c>
-      <c r="R16">
-        <v>0.044093087476</v>
-      </c>
-      <c r="S16">
-        <v>0.000133784461583608</v>
-      </c>
-      <c r="T16">
-        <v>0.0001337844615836079</v>
+      <c r="G17">
+        <v>0.155836</v>
+      </c>
+      <c r="H17">
+        <v>0.467508</v>
+      </c>
+      <c r="I17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7925460000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.377638</v>
+      </c>
+      <c r="O17">
+        <v>0.02896056603749454</v>
+      </c>
+      <c r="P17">
+        <v>0.02896056603749454</v>
+      </c>
+      <c r="Q17">
+        <v>0.123507198456</v>
+      </c>
+      <c r="R17">
+        <v>1.111564786104</v>
+      </c>
+      <c r="S17">
+        <v>0.003242956097830507</v>
+      </c>
+      <c r="T17">
+        <v>0.003242956097830506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.155836</v>
+      </c>
+      <c r="H18">
+        <v>0.467508</v>
+      </c>
+      <c r="I18">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J18">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>24.90258766666667</v>
+      </c>
+      <c r="N18">
+        <v>74.707763</v>
+      </c>
+      <c r="O18">
+        <v>0.9099699381802406</v>
+      </c>
+      <c r="P18">
+        <v>0.9099699381802406</v>
+      </c>
+      <c r="Q18">
+        <v>3.880719651622667</v>
+      </c>
+      <c r="R18">
+        <v>34.926476864604</v>
+      </c>
+      <c r="S18">
+        <v>0.1018969227342961</v>
+      </c>
+      <c r="T18">
+        <v>0.1018969227342961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.155836</v>
+      </c>
+      <c r="H19">
+        <v>0.467508</v>
+      </c>
+      <c r="I19">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J19">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.100159</v>
+      </c>
+      <c r="N19">
+        <v>0.300477</v>
+      </c>
+      <c r="O19">
+        <v>0.003659928046762479</v>
+      </c>
+      <c r="P19">
+        <v>0.003659928046762478</v>
+      </c>
+      <c r="Q19">
+        <v>0.015608377924</v>
+      </c>
+      <c r="R19">
+        <v>0.140475401316</v>
+      </c>
+      <c r="S19">
+        <v>0.0004098326656151261</v>
+      </c>
+      <c r="T19">
+        <v>0.000409832665615126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.155836</v>
+      </c>
+      <c r="H20">
+        <v>0.467508</v>
+      </c>
+      <c r="I20">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J20">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.537356666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.61207</v>
+      </c>
+      <c r="O20">
+        <v>0.05617682666770443</v>
+      </c>
+      <c r="P20">
+        <v>0.05617682666770443</v>
+      </c>
+      <c r="Q20">
+        <v>0.2395755135066667</v>
+      </c>
+      <c r="R20">
+        <v>2.15617962156</v>
+      </c>
+      <c r="S20">
+        <v>0.006290587772453647</v>
+      </c>
+      <c r="T20">
+        <v>0.006290587772453646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.155836</v>
+      </c>
+      <c r="H21">
+        <v>0.467508</v>
+      </c>
+      <c r="I21">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J21">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03373566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.101207</v>
+      </c>
+      <c r="O21">
+        <v>0.001232741067797836</v>
+      </c>
+      <c r="P21">
+        <v>0.001232741067797835</v>
+      </c>
+      <c r="Q21">
+        <v>0.005257231350666668</v>
+      </c>
+      <c r="R21">
+        <v>0.047315082156</v>
+      </c>
+      <c r="S21">
+        <v>0.0001380402978893895</v>
+      </c>
+      <c r="T21">
+        <v>0.0001380402978893894</v>
       </c>
     </row>
   </sheetData>
